--- a/resource/data.xlsx
+++ b/resource/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Automation\lession_02\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE5CD28-5267-4FB9-92E3-A2C97F61AA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ABE1C7-4F3F-4825-BDFC-5A2DD6CC5D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cart" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Image</t>
   </si>
@@ -39,13 +39,10 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Samsung galaxy s6</t>
   </si>
   <si>
-    <t>imgs/galaxy_s6.jpg</t>
+    <t>/imgs/galaxy_s6.jpg</t>
   </si>
 </sst>
 </file>
@@ -81,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +364,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,19 +385,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
         <v>360</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>